--- a/natmiOut/OldD2/LR-pairs_lrc2p/Ccl20-Cxcr3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Ccl20-Cxcr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,10 +79,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>Ccl20</t>
   </si>
   <si>
     <t>Cxcr3</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +522,247 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.81236859118897</v>
+        <v>1.019213</v>
       </c>
       <c r="H2">
-        <v>0.81236859118897</v>
+        <v>3.057639</v>
       </c>
       <c r="I2">
+        <v>0.928181872270981</v>
+      </c>
+      <c r="J2">
+        <v>0.928181872270981</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M2">
+        <v>0.7166990000000001</v>
+      </c>
+      <c r="N2">
+        <v>2.150097</v>
+      </c>
+      <c r="O2">
+        <v>0.2276207788704612</v>
+      </c>
+      <c r="P2">
+        <v>0.2276207788704611</v>
+      </c>
+      <c r="Q2">
+        <v>0.7304689378870001</v>
+      </c>
+      <c r="R2">
+        <v>6.574220440983001</v>
+      </c>
+      <c r="S2">
+        <v>0.2112734806997636</v>
+      </c>
+      <c r="T2">
+        <v>0.2112734806997636</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
         <v>1</v>
       </c>
-      <c r="J2">
+      <c r="G3">
+        <v>1.019213</v>
+      </c>
+      <c r="H3">
+        <v>3.057639</v>
+      </c>
+      <c r="I3">
+        <v>0.928181872270981</v>
+      </c>
+      <c r="J3">
+        <v>0.928181872270981</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
         <v>1</v>
       </c>
-      <c r="K2">
+      <c r="M3">
+        <v>2.431954666666666</v>
+      </c>
+      <c r="N3">
+        <v>7.295864</v>
+      </c>
+      <c r="O3">
+        <v>0.7723792211295388</v>
+      </c>
+      <c r="P3">
+        <v>0.7723792211295388</v>
+      </c>
+      <c r="Q3">
+        <v>2.478679811677333</v>
+      </c>
+      <c r="R3">
+        <v>22.308118305096</v>
+      </c>
+      <c r="S3">
+        <v>0.7169083915712174</v>
+      </c>
+      <c r="T3">
+        <v>0.7169083915712174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
         <v>1</v>
       </c>
-      <c r="L2">
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.07886166666666666</v>
+      </c>
+      <c r="H4">
+        <v>0.236585</v>
+      </c>
+      <c r="I4">
+        <v>0.07181812772901904</v>
+      </c>
+      <c r="J4">
+        <v>0.07181812772901904</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>0.7166990000000001</v>
+      </c>
+      <c r="N4">
+        <v>2.150097</v>
+      </c>
+      <c r="O4">
+        <v>0.2276207788704612</v>
+      </c>
+      <c r="P4">
+        <v>0.2276207788704611</v>
+      </c>
+      <c r="Q4">
+        <v>0.05652007763833334</v>
+      </c>
+      <c r="R4">
+        <v>0.508680698745</v>
+      </c>
+      <c r="S4">
+        <v>0.01634729817069758</v>
+      </c>
+      <c r="T4">
+        <v>0.01634729817069757</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
         <v>1</v>
       </c>
-      <c r="M2">
-        <v>2.39324635966321</v>
-      </c>
-      <c r="N2">
-        <v>2.39324635966321</v>
-      </c>
-      <c r="O2">
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.07886166666666666</v>
+      </c>
+      <c r="H5">
+        <v>0.236585</v>
+      </c>
+      <c r="I5">
+        <v>0.07181812772901904</v>
+      </c>
+      <c r="J5">
+        <v>0.07181812772901904</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
         <v>1</v>
       </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>1.944198173567733</v>
-      </c>
-      <c r="R2">
-        <v>1.944198173567733</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
+      <c r="M5">
+        <v>2.431954666666666</v>
+      </c>
+      <c r="N5">
+        <v>7.295864</v>
+      </c>
+      <c r="O5">
+        <v>0.7723792211295388</v>
+      </c>
+      <c r="P5">
+        <v>0.7723792211295388</v>
+      </c>
+      <c r="Q5">
+        <v>0.1917879982711111</v>
+      </c>
+      <c r="R5">
+        <v>1.72609198444</v>
+      </c>
+      <c r="S5">
+        <v>0.05547082955832146</v>
+      </c>
+      <c r="T5">
+        <v>0.05547082955832146</v>
       </c>
     </row>
   </sheetData>
